--- a/trip_plan/日本旅行计划.xlsx
+++ b/trip_plan/日本旅行计划.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\03Burn\dev\doc\trip_plan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="96" windowWidth="22056" windowHeight="9396" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="22050" windowHeight="9390" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="北海道" sheetId="1" r:id="rId1"/>
     <sheet name="东京" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="交通费计算" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>Day1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,24 +96,78 @@
   <si>
     <t>千岁</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东京地下铁1日</t>
+  </si>
+  <si>
+    <t>西瓜卡</t>
+  </si>
+  <si>
+    <t>suica</t>
+  </si>
+  <si>
+    <t>PASMO</t>
+  </si>
+  <si>
+    <t>成田机场</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nex JR </t>
+  </si>
+  <si>
+    <t>海外游客</t>
+  </si>
+  <si>
+    <t>筑地市场</t>
+  </si>
+  <si>
+    <t>银座</t>
+  </si>
+  <si>
+    <t>千鸟渊</t>
+  </si>
+  <si>
+    <t>浅草寺</t>
+  </si>
+  <si>
+    <t>涩谷</t>
+  </si>
+  <si>
+    <t>新宿御苑</t>
+  </si>
+  <si>
+    <t>东京迪斯尼 sea</t>
+  </si>
+  <si>
+    <t>明治神宫</t>
+  </si>
+  <si>
+    <t>新宿</t>
+  </si>
+  <si>
+    <t>皇居</t>
+  </si>
+  <si>
+    <t>东京天空树</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -136,22 +195,28 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -168,7 +233,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>76553</xdr:colOff>
+      <xdr:colOff>38453</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>53647</xdr:rowOff>
     </xdr:to>
@@ -200,8 +265,51 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>170874</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>180167</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4381500"/>
+          <a:ext cx="4609524" cy="6466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -243,7 +351,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -278,7 +386,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -489,18 +597,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="10" max="10" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -520,7 +629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -534,7 +643,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -548,7 +657,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -562,7 +671,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -576,7 +685,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -598,7 +707,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -616,7 +725,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -634,7 +743,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -652,7 +761,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -684,11 +793,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -697,13 +806,151 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>41873</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>41874</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>41875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>41876</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>41877</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>41878</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>41879</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>41880</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>41881</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20">
+        <v>710</v>
+      </c>
+      <c r="D20">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>